--- a/src/test/resources/Data/Empdetails.xlsx
+++ b/src/test/resources/Data/Empdetails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14b3b942826af451/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry\git\repository_Harry\com.myntrajio\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C3E2899-ADEA-4E6E-A40F-CE35085B867D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323A1D50-06B6-433B-A829-37D7C4C74457}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{4FCE7D12-88B4-4D34-B6E4-E40312166929}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Mobileno</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>User1</t>
   </si>
   <si>
@@ -118,6 +115,24 @@
   </si>
   <si>
     <t>adminuser5@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9876543221</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9876754322</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9876543242</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9876543262</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9876548322</t>
+  </si>
+  <si>
+    <t>Feedback</t>
   </si>
 </sst>
 </file>
@@ -170,11 +185,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -493,7 +509,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,110 +535,110 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>9876543221</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>9876754322</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>9876543242</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>9876543262</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>9876548322</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
